--- a/src/assets/fullbody-program.xlsx
+++ b/src/assets/fullbody-program.xlsx
@@ -1,229 +1,340 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.benderov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Projects\fitness-app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA1072-3F58-47AF-8112-34E24167B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141637F-DC7A-48FA-8BA5-8D05AF2F47DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Тренировъчна програма" sheetId="1" r:id="rId1"/>
+    <sheet name="Training Program" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
-  <si>
-    <t>Ред на упражненията</t>
-  </si>
-  <si>
-    <t>Упражнение</t>
-  </si>
-  <si>
-    <t>Серии</t>
-  </si>
-  <si>
-    <t>Повторения</t>
-  </si>
-  <si>
-    <t>Инкремент</t>
-  </si>
-  <si>
-    <t>Седмица 1</t>
-  </si>
-  <si>
-    <t>Седмица 2</t>
-  </si>
-  <si>
-    <t>Седмица 3</t>
-  </si>
-  <si>
-    <t>Седмица 4</t>
-  </si>
-  <si>
-    <t>Седмица 5</t>
-  </si>
-  <si>
-    <t>Седмица 6</t>
-  </si>
-  <si>
-    <t>Седмица 7</t>
-  </si>
-  <si>
-    <t>Седмица 8</t>
-  </si>
-  <si>
-    <t>Седмица 9</t>
-  </si>
-  <si>
-    <t>Седмица 10</t>
-  </si>
-  <si>
-    <t>Седмица 11</t>
-  </si>
-  <si>
-    <t>Седмица 12</t>
-  </si>
-  <si>
-    <t>Седмица 13</t>
-  </si>
-  <si>
-    <t>Седмица 14</t>
-  </si>
-  <si>
-    <t>Седмица 15</t>
-  </si>
-  <si>
-    <t>Седмица 16</t>
-  </si>
-  <si>
-    <t>Седмица 17</t>
-  </si>
-  <si>
-    <t>Седмица 18</t>
-  </si>
-  <si>
-    <t>Седмица 19</t>
-  </si>
-  <si>
-    <t>Сгъване за задно бедро с кабел прав</t>
-  </si>
-  <si>
-    <t>Клек на смит машина</t>
-  </si>
-  <si>
-    <t>Лег екзтензия едностранна</t>
-  </si>
-  <si>
-    <t>Прасец прав на смит машината</t>
-  </si>
-  <si>
-    <t>Горна лежанка на смит машина</t>
-  </si>
-  <si>
-    <t>15-20</t>
-  </si>
-  <si>
-    <t>Раменни преси от седеж на смит машина</t>
-  </si>
-  <si>
-    <t>Лицеви опори с тесен хват за трицепс</t>
-  </si>
-  <si>
-    <t>Гребане на смит машина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Придърпване на горен скрипец едностранно </t>
-  </si>
-  <si>
-    <t>Чуково сгъване за бицепс с кабел</t>
-  </si>
-  <si>
-    <t>Коремни преси на пейката с тежест</t>
-  </si>
-  <si>
-    <t>Лежанка с тесен хват за трицепс</t>
-  </si>
-  <si>
-    <t>Придърпване на горен скрипец в тесен хват</t>
-  </si>
-  <si>
-    <t>Трицепсово разгъване с кабел едностранно</t>
-  </si>
-  <si>
-    <t>Сгъване за бицепс с дъмбели</t>
-  </si>
-  <si>
-    <t>Бг клек на смит машина</t>
-  </si>
-  <si>
-    <t>Лег екстензия</t>
-  </si>
-  <si>
-    <t>Прасец на клек машината</t>
-  </si>
-  <si>
-    <t>Молитва</t>
-  </si>
-  <si>
-    <t>Гребане на машина широк хват</t>
-  </si>
-  <si>
-    <t>Раменни преси на машина</t>
-  </si>
-  <si>
-    <t>Гребане на машина неутрален хват</t>
-  </si>
-  <si>
-    <t>Румънска тяга</t>
-  </si>
-  <si>
-    <t>Прасец прав с дъмбел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Машина за гърди </t>
-  </si>
-  <si>
-    <t>Раменни преси с дъмбели</t>
-  </si>
-  <si>
-    <t>Лежанка с тесен хват на смит машина</t>
-  </si>
-  <si>
-    <t>Гребане за перки на машина едностранно</t>
-  </si>
-  <si>
-    <t>Трицепс над глава с дъмбел едностранно</t>
-  </si>
-  <si>
-    <t>Лежанка на смит машина</t>
-  </si>
-  <si>
-    <t>Трицепс с кабел над глава</t>
-  </si>
-  <si>
-    <t>Скотово сгъване за бицепс с дъмбел</t>
-  </si>
-  <si>
-    <t>Молитва (1,75s)</t>
-  </si>
-  <si>
-    <t>ЦЯЛО ТЯЛО 4</t>
-  </si>
-  <si>
-    <t>ЦЯЛО ТЯЛО 3</t>
-  </si>
-  <si>
-    <t>ЦЯЛО ТЯЛО 2</t>
-  </si>
-  <si>
-    <t>ЦЯЛО ТЯЛО 1</t>
-  </si>
-  <si>
-    <t>Лежанка</t>
-  </si>
-  <si>
-    <t>Гребане с лост</t>
-  </si>
-  <si>
-    <t>Трицепсово разгъване с кабел двустранно</t>
-  </si>
-  <si>
-    <t>Сгъване за бицепс с кабел двустранно</t>
-  </si>
-  <si>
-    <t>Сгъване за задно бедро с дъмбел</t>
-  </si>
-  <si>
-    <t>Молитва (гърба срещу машината)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+  <si>
+    <t>Full Body 1</t>
+  </si>
+  <si>
+    <t>RDL</t>
+  </si>
+  <si>
+    <t>Adductor</t>
+  </si>
+  <si>
+    <t>Leg Press</t>
+  </si>
+  <si>
+    <t>Leg Extension</t>
+  </si>
+  <si>
+    <t>Seated Calf Raises</t>
+  </si>
+  <si>
+    <t>Incline DB Press</t>
+  </si>
+  <si>
+    <t>DB Shouder Press</t>
+  </si>
+  <si>
+    <t>Close Grip Smith Press</t>
+  </si>
+  <si>
+    <t>Upper Back DB Row</t>
+  </si>
+  <si>
+    <t>Unilateral Lat Pulldown</t>
+  </si>
+  <si>
+    <t>Cable Triceps Extension</t>
+  </si>
+  <si>
+    <t>Preacher DB Curl</t>
+  </si>
+  <si>
+    <t>Ab Crunches</t>
+  </si>
+  <si>
+    <t>Flat Machine Chest Press</t>
+  </si>
+  <si>
+    <t>Machine Shouder Press</t>
+  </si>
+  <si>
+    <t>Dips</t>
+  </si>
+  <si>
+    <t>Upper Back Pulldown</t>
+  </si>
+  <si>
+    <t>Lat Cable Row</t>
+  </si>
+  <si>
+    <t>Overhead Machine Extension</t>
+  </si>
+  <si>
+    <t>Neutral Cable Curl</t>
+  </si>
+  <si>
+    <t>Seated Leg Curl</t>
+  </si>
+  <si>
+    <t>Adductor (pause in lenghtened)</t>
+  </si>
+  <si>
+    <t>Unilateral Leg Press</t>
+  </si>
+  <si>
+    <t>Unilateral Leg Extension</t>
+  </si>
+  <si>
+    <t>Standing Calf Raises</t>
+  </si>
+  <si>
+    <t>Hip Extension</t>
+  </si>
+  <si>
+    <t>Full Body 2</t>
+  </si>
+  <si>
+    <t>Full Body 3</t>
+  </si>
+  <si>
+    <t>Full Body 4</t>
+  </si>
+  <si>
+    <t>Adductor (pause in short)</t>
+  </si>
+  <si>
+    <t>Hack Squat</t>
+  </si>
+  <si>
+    <t>Machine Seated Calf Raises</t>
+  </si>
+  <si>
+    <t>Flat DB Press</t>
+  </si>
+  <si>
+    <t>Cable Shouder Press</t>
+  </si>
+  <si>
+    <t>Machine Dips</t>
+  </si>
+  <si>
+    <t>Upper Back Cable Row</t>
+  </si>
+  <si>
+    <t>Lat Pulldown</t>
+  </si>
+  <si>
+    <t>Cable Overhead Triceps Extension</t>
+  </si>
+  <si>
+    <t>Cable Curl</t>
+  </si>
+  <si>
+    <t>Incline Machine Chest Press</t>
+  </si>
+  <si>
+    <t>Close Grip Machine Press</t>
+  </si>
+  <si>
+    <t>Upper Back Machine Row</t>
+  </si>
+  <si>
+    <t>Unilateral Lat Cable Row</t>
+  </si>
+  <si>
+    <t>Unilateral Cable Triceps Extension</t>
+  </si>
+  <si>
+    <t>Neutral DB Curl</t>
+  </si>
+  <si>
+    <t>Lying Leg Curl</t>
+  </si>
+  <si>
+    <t>Bulgarian Split Squat</t>
+  </si>
+  <si>
+    <t>Leg Press Calf Raises</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>Week 18</t>
+  </si>
+  <si>
+    <t>Week 19</t>
+  </si>
+  <si>
+    <t>Week 20</t>
+  </si>
+  <si>
+    <t>Week 21</t>
+  </si>
+  <si>
+    <t>Week 22</t>
+  </si>
+  <si>
+    <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
+  </si>
+  <si>
+    <t>Week 25</t>
+  </si>
+  <si>
+    <t>Week 26</t>
+  </si>
+  <si>
+    <t>Week 27</t>
+  </si>
+  <si>
+    <t>Week 28</t>
+  </si>
+  <si>
+    <t>Week 29</t>
+  </si>
+  <si>
+    <t>Week 30</t>
+  </si>
+  <si>
+    <t>Week 31</t>
+  </si>
+  <si>
+    <t>Week 32</t>
+  </si>
+  <si>
+    <t>Week 33</t>
+  </si>
+  <si>
+    <t>Week 34</t>
+  </si>
+  <si>
+    <t>Week 35</t>
+  </si>
+  <si>
+    <t>Week 36</t>
+  </si>
+  <si>
+    <t>Week 37</t>
+  </si>
+  <si>
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Week 39</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Week 42</t>
+  </si>
+  <si>
+    <t>Week 43</t>
+  </si>
+  <si>
+    <t>Week 44</t>
+  </si>
+  <si>
+    <t>Week 45</t>
+  </si>
+  <si>
+    <t>Week 46</t>
+  </si>
+  <si>
+    <t>Week 47</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>Week 49</t>
+  </si>
+  <si>
+    <t>Week 50</t>
+  </si>
+  <si>
+    <t>Week 51</t>
+  </si>
+  <si>
+    <t>Week 52</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Exersices</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Reps</t>
   </si>
 </sst>
 </file>
@@ -233,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -252,6 +363,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -280,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -409,12 +539,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,25 +627,58 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,10 +991,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:BF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -781,22 +1007,20 @@
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -817,86 +1041,218 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+    </row>
+    <row r="2" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF2" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
+      <c r="B3" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
@@ -919,19 +1275,52 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+    </row>
+    <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>25</v>
+      <c r="B4" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
@@ -954,19 +1343,52 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+    </row>
+    <row r="5" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
@@ -989,54 +1411,120 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+    </row>
+    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+    </row>
+    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>28</v>
+      <c r="B7" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
+      <c r="D7" s="8">
+        <v>44778</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
@@ -1059,19 +1547,52 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+    </row>
+    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
+      <c r="B8" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
+      <c r="D8" s="8">
+        <v>44904</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
@@ -1094,19 +1615,52 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+    </row>
+    <row r="9" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
+      <c r="B9" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
+      <c r="D9" s="8">
+        <v>44904</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
@@ -1129,19 +1683,52 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+    </row>
+    <row r="10" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
+      <c r="B10" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
+      <c r="D10" s="8">
+        <v>44904</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="4"/>
@@ -1164,19 +1751,52 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+    </row>
+    <row r="11" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
+      <c r="D11" s="8">
+        <v>44904</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4"/>
@@ -1199,19 +1819,52 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+    </row>
+    <row r="12" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>55</v>
+      <c r="B12" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
+      <c r="D12" s="8">
+        <v>44904</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="4"/>
@@ -1234,19 +1887,52 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+    </row>
+    <row r="13" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
+      <c r="B13" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
+      <c r="D13" s="8">
+        <v>44904</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="4"/>
@@ -1269,183 +1955,414 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+    </row>
+    <row r="14" spans="1:58" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="B14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+    </row>
+    <row r="15" spans="1:58" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+    </row>
+    <row r="16" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+    </row>
+    <row r="17" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="5" t="s">
+      <c r="S17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF17" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>44109</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="4"/>
@@ -1468,19 +2385,52 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+    </row>
+    <row r="19" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="4"/>
@@ -1503,19 +2453,52 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+    </row>
+    <row r="20" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>4</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
@@ -1538,54 +2521,120 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+    </row>
+    <row r="21" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>5</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="15">
+        <v>4</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12">
         <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+    </row>
+    <row r="22" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14">
         <v>1</v>
       </c>
       <c r="D22" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="4"/>
@@ -1608,19 +2657,52 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+    </row>
+    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
@@ -1643,19 +2725,52 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+    </row>
+    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>29</v>
+      <c r="D24" s="8">
+        <v>44778</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="4"/>
@@ -1678,19 +2793,52 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+    </row>
+    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>9</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>29</v>
+      <c r="D25" s="8">
+        <v>44904</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="4"/>
@@ -1713,19 +2861,52 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+    </row>
+    <row r="26" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>29</v>
+      <c r="D26" s="8">
+        <v>44904</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
@@ -1748,19 +2929,52 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+    </row>
+    <row r="27" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>11</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>29</v>
+      <c r="D27" s="8">
+        <v>44904</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4"/>
@@ -1783,19 +2997,52 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+    </row>
+    <row r="28" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>29</v>
+      <c r="D28" s="8">
+        <v>44904</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4"/>
@@ -1818,183 +3065,414 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+    </row>
+    <row r="29" spans="1:58" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>12</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="24"/>
+    </row>
+    <row r="30" spans="1:58" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>13</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="32"/>
+      <c r="BB30" s="32"/>
+      <c r="BC30" s="32"/>
+      <c r="BD30" s="32"/>
+      <c r="BE30" s="32"/>
+      <c r="BF30" s="32"/>
+    </row>
+    <row r="31" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+    </row>
+    <row r="32" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y30" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>44474</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>2</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>44109</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE32" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF32" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG32" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK32" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO32" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP32" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ32" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR32" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU32" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW32" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC32" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE32" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF32" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>3</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" s="8">
-        <v>44109</v>
+        <v>44778</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="4"/>
@@ -2017,19 +3495,52 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="9"/>
+    </row>
+    <row r="34" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>4</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="13">
+        <v>2</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8">
-        <v>44474</v>
+        <v>44778</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="4"/>
@@ -2052,19 +3563,52 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="9"/>
+    </row>
+    <row r="35" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>29</v>
+      <c r="D35" s="8">
+        <v>44778</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="4"/>
@@ -2087,54 +3631,120 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="9"/>
+      <c r="BC35" s="9"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="9"/>
+      <c r="BF35" s="9"/>
+    </row>
+    <row r="36" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>6</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>44778</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="9"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="13"/>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13"/>
+      <c r="BE36" s="13"/>
+      <c r="BF36" s="13"/>
+    </row>
+    <row r="37" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>7</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>29</v>
+      <c r="D37" s="8">
+        <v>44778</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
@@ -2157,19 +3767,52 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
+    </row>
+    <row r="38" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>8</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>29</v>
+      <c r="D38" s="8">
+        <v>44904</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
@@ -2192,19 +3835,52 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+    </row>
+    <row r="39" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>9</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>29</v>
+      <c r="D39" s="8">
+        <v>44904</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="4"/>
@@ -2227,19 +3903,52 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="9"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="9"/>
+    </row>
+    <row r="40" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>10</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>29</v>
+      <c r="D40" s="8">
+        <v>44904</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="4"/>
@@ -2262,19 +3971,52 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="9"/>
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="9"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="9"/>
+      <c r="BB40" s="9"/>
+      <c r="BC40" s="9"/>
+      <c r="BD40" s="9"/>
+      <c r="BE40" s="9"/>
+      <c r="BF40" s="9"/>
+    </row>
+    <row r="41" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>11</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>29</v>
+      <c r="D41" s="8">
+        <v>44904</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="4"/>
@@ -2297,19 +4039,52 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="9"/>
+      <c r="AP41" s="9"/>
+      <c r="AQ41" s="9"/>
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="9"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="9"/>
+      <c r="BD41" s="9"/>
+      <c r="BE41" s="9"/>
+      <c r="BF41" s="9"/>
+    </row>
+    <row r="42" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>12</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>29</v>
+      <c r="D42" s="8">
+        <v>44904</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="4"/>
@@ -2332,218 +4107,482 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9"/>
+      <c r="AP42" s="9"/>
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="9"/>
+      <c r="BE42" s="9"/>
+      <c r="BF42" s="9"/>
+    </row>
+    <row r="43" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>11</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="9"/>
+      <c r="AP43" s="9"/>
+      <c r="AQ43" s="9"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="9"/>
+      <c r="BC43" s="9"/>
+      <c r="BD43" s="9"/>
+      <c r="BE43" s="9"/>
+      <c r="BF43" s="9"/>
+    </row>
+    <row r="44" spans="1:58" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>12</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="24"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="24"/>
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="24"/>
+      <c r="AW44" s="24"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="24"/>
+      <c r="AZ44" s="24"/>
+      <c r="BA44" s="24"/>
+      <c r="BB44" s="24"/>
+      <c r="BC44" s="24"/>
+      <c r="BD44" s="24"/>
+      <c r="BE44" s="24"/>
+      <c r="BF44" s="24"/>
+    </row>
+    <row r="45" spans="1:58" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <v>13</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="30">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>44904</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="32"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="32"/>
+      <c r="AM45" s="32"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="32"/>
+      <c r="AP45" s="32"/>
+      <c r="AQ45" s="32"/>
+      <c r="AR45" s="32"/>
+      <c r="AS45" s="32"/>
+      <c r="AT45" s="32"/>
+      <c r="AU45" s="32"/>
+      <c r="AV45" s="32"/>
+      <c r="AW45" s="32"/>
+      <c r="AX45" s="32"/>
+      <c r="AY45" s="32"/>
+      <c r="AZ45" s="32"/>
+      <c r="BA45" s="32"/>
+      <c r="BB45" s="32"/>
+      <c r="BC45" s="32"/>
+      <c r="BD45" s="32"/>
+      <c r="BE45" s="32"/>
+      <c r="BF45" s="32"/>
+    </row>
+    <row r="46" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+    </row>
+    <row r="47" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>1</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="Q47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S47" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T47" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8">
-        <v>44474</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-    </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>2</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8">
-        <v>44109</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-    </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>3</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8">
-        <v>44109</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U47" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W47" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X47" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y47" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA47" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB47" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC47" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD47" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE47" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF47" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG47" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH47" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI47" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ47" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK47" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL47" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM47" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN47" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ47" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR47" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS47" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT47" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU47" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW47" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX47" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY47" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA47" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC47" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD47" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE47" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF47" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>4</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="7">
         <v>1</v>
       </c>
       <c r="D48" s="8">
-        <v>44474</v>
+        <v>44778</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="4"/>
@@ -2566,19 +4605,52 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
+      <c r="BC48" s="9"/>
+      <c r="BD48" s="9"/>
+      <c r="BE48" s="9"/>
+      <c r="BF48" s="9"/>
+    </row>
+    <row r="49" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>5</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" s="8">
-        <v>44474</v>
+        <v>44778</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="4"/>
@@ -2601,19 +4673,52 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
-    </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
+      <c r="AP49" s="9"/>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="9"/>
+      <c r="BC49" s="9"/>
+      <c r="BD49" s="9"/>
+      <c r="BE49" s="9"/>
+      <c r="BF49" s="9"/>
+    </row>
+    <row r="50" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>6</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" s="8">
-        <v>44474</v>
+        <v>44778</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="4"/>
@@ -2636,54 +4741,120 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="9"/>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="9"/>
+      <c r="BB50" s="9"/>
+      <c r="BC50" s="9"/>
+      <c r="BD50" s="9"/>
+      <c r="BE50" s="9"/>
+      <c r="BF50" s="9"/>
+    </row>
+    <row r="51" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>7</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="7">
+        <v>4</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="12">
         <v>1</v>
       </c>
       <c r="D51" s="8">
-        <v>44474</v>
+        <v>44778</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="9"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
+      <c r="AT51" s="13"/>
+      <c r="AU51" s="13"/>
+      <c r="AV51" s="13"/>
+      <c r="AW51" s="13"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="13"/>
+      <c r="AZ51" s="13"/>
+      <c r="BA51" s="13"/>
+      <c r="BB51" s="13"/>
+      <c r="BC51" s="13"/>
+      <c r="BD51" s="13"/>
+      <c r="BE51" s="13"/>
+      <c r="BF51" s="13"/>
+    </row>
+    <row r="52" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>8</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>29</v>
+      <c r="D52" s="8">
+        <v>44778</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="4"/>
@@ -2706,19 +4877,52 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
-    </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="9"/>
+      <c r="AP52" s="9"/>
+      <c r="AQ52" s="9"/>
+      <c r="AR52" s="9"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+      <c r="AV52" s="9"/>
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="11"/>
+      <c r="AY52" s="9"/>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="9"/>
+      <c r="BB52" s="9"/>
+      <c r="BC52" s="9"/>
+      <c r="BD52" s="9"/>
+      <c r="BE52" s="9"/>
+      <c r="BF52" s="9"/>
+    </row>
+    <row r="53" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>9</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>29</v>
+      <c r="D53" s="8">
+        <v>44778</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
@@ -2741,19 +4945,52 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="9"/>
+      <c r="AP53" s="9"/>
+      <c r="AQ53" s="9"/>
+      <c r="AR53" s="9"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+      <c r="AV53" s="9"/>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="11"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+      <c r="BE53" s="9"/>
+      <c r="BF53" s="9"/>
+    </row>
+    <row r="54" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>10</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>29</v>
+      <c r="D54" s="8">
+        <v>44778</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="4"/>
@@ -2776,19 +5013,52 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
-    </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="9"/>
+      <c r="AQ54" s="9"/>
+      <c r="AR54" s="9"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9"/>
+      <c r="AV54" s="9"/>
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="9"/>
+      <c r="BE54" s="9"/>
+      <c r="BF54" s="9"/>
+    </row>
+    <row r="55" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>11</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>29</v>
+      <c r="D55" s="8">
+        <v>44904</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="4"/>
@@ -2811,19 +5081,52 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="9"/>
+      <c r="AP55" s="9"/>
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+      <c r="AV55" s="9"/>
+      <c r="AW55" s="9"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="9"/>
+      <c r="BC55" s="9"/>
+      <c r="BD55" s="9"/>
+      <c r="BE55" s="9"/>
+      <c r="BF55" s="9"/>
+    </row>
+    <row r="56" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>12</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>29</v>
+      <c r="D56" s="8">
+        <v>44904</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="4"/>
@@ -2846,12 +5149,53 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="9"/>
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="9"/>
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+      <c r="AV56" s="9"/>
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="9"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
+      <c r="BC56" s="9"/>
+      <c r="BD56" s="9"/>
+      <c r="BE56" s="9"/>
+      <c r="BF56" s="9"/>
+    </row>
+    <row r="57" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>10</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>44904</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
@@ -2873,12 +5217,53 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
-    </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="9"/>
+      <c r="AP57" s="9"/>
+      <c r="AQ57" s="9"/>
+      <c r="AR57" s="9"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="9"/>
+      <c r="AV57" s="9"/>
+      <c r="AW57" s="9"/>
+      <c r="AX57" s="11"/>
+      <c r="AY57" s="9"/>
+      <c r="AZ57" s="9"/>
+      <c r="BA57" s="9"/>
+      <c r="BB57" s="9"/>
+      <c r="BC57" s="9"/>
+      <c r="BD57" s="9"/>
+      <c r="BE57" s="9"/>
+      <c r="BF57" s="9"/>
+    </row>
+    <row r="58" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>11</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>44904</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="4"/>
       <c r="G58" s="9"/>
@@ -2900,65 +5285,258 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="9"/>
+      <c r="AQ58" s="9"/>
+      <c r="AR58" s="9"/>
+      <c r="AS58" s="9"/>
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="9"/>
+      <c r="AV58" s="9"/>
+      <c r="AW58" s="9"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="9"/>
+      <c r="AZ58" s="9"/>
+      <c r="BA58" s="9"/>
+      <c r="BB58" s="9"/>
+      <c r="BC58" s="9"/>
+      <c r="BD58" s="9"/>
+      <c r="BE58" s="9"/>
+      <c r="BF58" s="9"/>
+    </row>
+    <row r="59" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>12</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="30">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>44904</v>
+      </c>
       <c r="E59" s="7"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="24"/>
+      <c r="AI59" s="24"/>
+      <c r="AJ59" s="24"/>
+      <c r="AK59" s="24"/>
+      <c r="AL59" s="24"/>
+      <c r="AM59" s="26"/>
+      <c r="AN59" s="24"/>
+      <c r="AO59" s="24"/>
+      <c r="AP59" s="24"/>
+      <c r="AQ59" s="24"/>
+      <c r="AR59" s="24"/>
+      <c r="AS59" s="24"/>
+      <c r="AT59" s="24"/>
+      <c r="AU59" s="24"/>
+      <c r="AV59" s="24"/>
+      <c r="AW59" s="24"/>
+      <c r="AX59" s="26"/>
+      <c r="AY59" s="24"/>
+      <c r="AZ59" s="24"/>
+      <c r="BA59" s="24"/>
+      <c r="BB59" s="24"/>
+      <c r="BC59" s="24"/>
+      <c r="BD59" s="24"/>
+      <c r="BE59" s="24"/>
+      <c r="BF59" s="24"/>
+    </row>
+    <row r="60" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>13</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="30">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>44904</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="32"/>
+      <c r="AF60" s="32"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="32"/>
+      <c r="AJ60" s="32"/>
+      <c r="AK60" s="32"/>
+      <c r="AL60" s="32"/>
+      <c r="AM60" s="32"/>
+      <c r="AN60" s="32"/>
+      <c r="AO60" s="32"/>
+      <c r="AP60" s="32"/>
+      <c r="AQ60" s="32"/>
+      <c r="AR60" s="32"/>
+      <c r="AS60" s="32"/>
+      <c r="AT60" s="32"/>
+      <c r="AU60" s="32"/>
+      <c r="AV60" s="32"/>
+      <c r="AW60" s="32"/>
+      <c r="AX60" s="32"/>
+      <c r="AY60" s="32"/>
+      <c r="AZ60" s="32"/>
+      <c r="BA60" s="32"/>
+      <c r="BB60" s="32"/>
+      <c r="BC60" s="32"/>
+      <c r="BD60" s="32"/>
+      <c r="BE60" s="32"/>
+      <c r="BF60" s="32"/>
+    </row>
+    <row r="61" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+    </row>
+    <row r="62" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+    </row>
+    <row r="63" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+    </row>
+    <row r="64" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2995,14 +5573,18 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A47:E47"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>